--- a/FurryMine/Assets/Datas/MineLevelTable.xlsx
+++ b/FurryMine/Assets/Datas/MineLevelTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436F2551-86A2-4855-9519-BA7AB90E7AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8C4A39-BBA0-4014-BCEB-EF3139F54D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{1EC83850-4143-4598-8817-3FDEA009FC45}"/>
+    <workbookView xWindow="945" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{1EC83850-4143-4598-8817-3FDEA009FC45}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -83,12 +83,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,9 +111,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,48 +438,56 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
     </row>

--- a/FurryMine/Assets/Datas/MineLevelTable.xlsx
+++ b/FurryMine/Assets/Datas/MineLevelTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8C4A39-BBA0-4014-BCEB-EF3139F54D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13713ED9-B73A-4461-BF6B-8BB443A6E013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{1EC83850-4143-4598-8817-3FDEA009FC45}"/>
+    <workbookView xWindow="2745" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{1EC83850-4143-4598-8817-3FDEA009FC45}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>OreCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324C818E-2D61-406F-80EE-EB8BDC084512}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -451,7 +459,7 @@
     <col min="6" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +478,20 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -489,6 +509,131 @@
       </c>
       <c r="F2" s="2">
         <v>1</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G3">
+        <v>68</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>86</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G5">
+        <v>96</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
